--- a/Rastreo productos/tepeyac.xlsx
+++ b/Rastreo productos/tepeyac.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10763" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10763" uniqueCount="890">
   <si>
     <t>clave</t>
   </si>
@@ -2695,6 +2695,9 @@
   <si>
     <t>PO004</t>
   </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
 </sst>
 </file>
 
@@ -41920,7 +41923,7 @@
   <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41930,7 +41933,7 @@
         <v>557</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>889</v>
       </c>
       <c r="C1" t="s">
         <v>558</v>
